--- a/public/admin/files/import/users_import_template.xlsx
+++ b/public/admin/files/import/users_import_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDEEC226-F431-4BD9-A6DD-5BAD63D40C31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAE92ECF-7A33-49D9-AB17-44FAD9671BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BDED75E-4822-40A3-AF2D-B3700A63C0D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>first name</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>personal email</t>
   </si>
   <si>
     <t>password</t>
@@ -409,24 +406,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E7FDBA-4910-4EAE-BE8D-7B3D3F9E5C30}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,9 +443,6 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
